--- a/TEEmployee/Files/userDB.xlsx
+++ b/TEEmployee/Files/userDB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
   <si>
     <t>員編</t>
   </si>
@@ -248,6 +248,9 @@
     <t>yswang@mail.sinotech.com.tw</t>
   </si>
   <si>
+    <t>地工組二</t>
+  </si>
+  <si>
     <t>4082</t>
   </si>
   <si>
@@ -362,9 +365,6 @@
     <t>apwang@mail.sinotech.com.tw</t>
   </si>
   <si>
-    <t>地工組二</t>
-  </si>
-  <si>
     <t>4371</t>
   </si>
   <si>
@@ -1347,12 +1347,6 @@
   </si>
   <si>
     <t>weiwen@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>9991</t>
-  </si>
-  <si>
-    <t>郭薩爾</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,9 +1512,6 @@
       <c r="R2" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T2" s="0" t="b">
         <v>0</v>
       </c>
@@ -1577,9 +1568,6 @@
       <c r="R3" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S3" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T3" s="0" t="b">
         <v>0</v>
       </c>
@@ -1636,9 +1624,6 @@
       <c r="R4" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T4" s="0" t="b">
         <v>0</v>
       </c>
@@ -1695,9 +1680,6 @@
       <c r="R5" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T5" s="0" t="b">
         <v>0</v>
       </c>
@@ -1754,9 +1736,6 @@
       <c r="R6" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="S6" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T6" s="0" t="b">
         <v>0</v>
       </c>
@@ -1813,9 +1792,6 @@
       <c r="R7" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S7" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T7" s="0" t="b">
         <v>0</v>
       </c>
@@ -1872,9 +1848,6 @@
       <c r="R8" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S8" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T8" s="0" t="b">
         <v>0</v>
       </c>
@@ -1931,9 +1904,6 @@
       <c r="R9" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S9" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T9" s="0" t="b">
         <v>0</v>
       </c>
@@ -1990,9 +1960,6 @@
       <c r="R10" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S10" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T10" s="0" t="b">
         <v>0</v>
       </c>
@@ -2023,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="K11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="M11" s="0" t="b">
         <v>0</v>
@@ -2048,9 +2015,6 @@
       </c>
       <c r="R11" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T11" s="0" t="b">
         <v>0</v>
@@ -2058,10 +2022,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>22</v>
@@ -2070,13 +2034,13 @@
         <v>49</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="0" t="b">
         <v>0</v>
@@ -2108,34 +2072,31 @@
       <c r="R12" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="S12" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T12" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" s="0" t="b">
         <v>0</v>
@@ -2147,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="0" t="b">
         <v>0</v>
@@ -2166,9 +2127,6 @@
       </c>
       <c r="R13" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T13" s="0" t="b">
         <v>0</v>
@@ -2176,10 +2134,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>22</v>
@@ -2188,13 +2146,13 @@
         <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" s="0" t="b">
         <v>1</v>
@@ -2226,19 +2184,16 @@
       <c r="R14" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="S14" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T14" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>22</v>
@@ -2250,10 +2205,10 @@
         <v>29</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I15" s="0" t="b">
         <v>0</v>
@@ -2265,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="0" t="b">
         <v>0</v>
@@ -2285,34 +2240,31 @@
       <c r="R15" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="S15" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T15" s="0" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" s="0" t="b">
         <v>0</v>
@@ -2324,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M16" s="0" t="b">
         <v>0</v>
@@ -2343,9 +2295,6 @@
       </c>
       <c r="R16" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T16" s="0" t="b">
         <v>0</v>
@@ -2353,10 +2302,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>22</v>
@@ -2368,22 +2317,22 @@
         <v>29</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I17" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="K17" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M17" s="0" t="b">
         <v>0</v>
@@ -2402,9 +2351,6 @@
       </c>
       <c r="R17" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T17" s="0" t="b">
         <v>0</v>
@@ -2412,10 +2358,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>22</v>
@@ -2427,10 +2373,10 @@
         <v>29</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I18" s="0" t="b">
         <v>0</v>
@@ -2442,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M18" s="0" t="b">
         <v>0</v>
@@ -2461,9 +2407,6 @@
       </c>
       <c r="R18" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S18" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T18" s="0" t="b">
         <v>0</v>
@@ -2471,10 +2414,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>22</v>
@@ -2486,10 +2429,10 @@
         <v>29</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I19" s="0" t="b">
         <v>0</v>
@@ -2501,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M19" s="0" t="b">
         <v>1</v>
@@ -2520,9 +2463,6 @@
       </c>
       <c r="R19" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T19" s="0" t="b">
         <v>0</v>
@@ -2560,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M20" s="0" t="b">
         <v>0</v>
@@ -2579,9 +2519,6 @@
       </c>
       <c r="R20" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S20" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T20" s="0" t="b">
         <v>0</v>
@@ -2619,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M21" s="0" t="b">
         <v>0</v>
@@ -2638,9 +2575,6 @@
       </c>
       <c r="R21" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S21" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T21" s="0" t="b">
         <v>0</v>
@@ -2698,9 +2632,6 @@
       <c r="R22" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S22" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T22" s="0" t="b">
         <v>0</v>
       </c>
@@ -2757,9 +2688,6 @@
       <c r="R23" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S23" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T23" s="0" t="b">
         <v>0</v>
       </c>
@@ -2816,9 +2744,6 @@
       <c r="R24" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S24" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T24" s="0" t="b">
         <v>0</v>
       </c>
@@ -2875,9 +2800,6 @@
       <c r="R25" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S25" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T25" s="0" t="b">
         <v>0</v>
       </c>
@@ -2914,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M26" s="0" t="b">
         <v>1</v>
@@ -2933,9 +2855,6 @@
       </c>
       <c r="R26" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T26" s="0" t="b">
         <v>0</v>
@@ -2993,9 +2912,6 @@
       <c r="R27" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="S27" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T27" s="0" t="b">
         <v>0</v>
       </c>
@@ -3032,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M28" s="0" t="b">
         <v>1</v>
@@ -3051,9 +2967,6 @@
       </c>
       <c r="R28" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="S28" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T28" s="0" t="b">
         <v>0</v>
@@ -3091,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M29" s="0" t="b">
         <v>0</v>
@@ -3110,9 +3023,6 @@
       </c>
       <c r="R29" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T29" s="0" t="b">
         <v>0</v>
@@ -3170,9 +3080,6 @@
       <c r="R30" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S30" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T30" s="0" t="b">
         <v>0</v>
       </c>
@@ -3229,9 +3136,6 @@
       <c r="R31" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S31" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T31" s="0" t="b">
         <v>0</v>
       </c>
@@ -3288,9 +3192,6 @@
       <c r="R32" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S32" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T32" s="0" t="b">
         <v>0</v>
       </c>
@@ -3347,9 +3248,6 @@
       <c r="R33" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S33" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T33" s="0" t="b">
         <v>0</v>
       </c>
@@ -3406,9 +3304,6 @@
       <c r="R34" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S34" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T34" s="0" t="b">
         <v>0</v>
       </c>
@@ -3465,9 +3360,6 @@
       <c r="R35" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S35" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T35" s="0" t="b">
         <v>1</v>
       </c>
@@ -3524,9 +3416,6 @@
       <c r="R36" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S36" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T36" s="0" t="b">
         <v>0</v>
       </c>
@@ -3545,7 +3434,7 @@
         <v>49</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>195</v>
@@ -3582,9 +3471,6 @@
       </c>
       <c r="R37" s="0" t="b">
         <v>1</v>
-      </c>
-      <c r="S37" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T37" s="0" t="b">
         <v>0</v>
@@ -3642,9 +3528,6 @@
       <c r="R38" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S38" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T38" s="0" t="b">
         <v>0</v>
       </c>
@@ -3701,9 +3584,6 @@
       <c r="R39" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S39" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T39" s="0" t="b">
         <v>0</v>
       </c>
@@ -3760,9 +3640,6 @@
       <c r="R40" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="S40" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T40" s="0" t="b">
         <v>0</v>
       </c>
@@ -3819,9 +3696,6 @@
       <c r="R41" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S41" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T41" s="0" t="b">
         <v>1</v>
       </c>
@@ -3878,9 +3752,6 @@
       <c r="R42" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S42" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T42" s="0" t="b">
         <v>0</v>
       </c>
@@ -3917,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M43" s="0" t="b">
         <v>0</v>
@@ -3936,9 +3807,6 @@
       </c>
       <c r="R43" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S43" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T43" s="0" t="b">
         <v>0</v>
@@ -3996,9 +3864,6 @@
       <c r="R44" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S44" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T44" s="0" t="b">
         <v>0</v>
       </c>
@@ -4035,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M45" s="0" t="b">
         <v>0</v>
@@ -4054,9 +3919,6 @@
       </c>
       <c r="R45" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S45" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T45" s="0" t="b">
         <v>0</v>
@@ -4114,9 +3976,6 @@
       <c r="R46" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S46" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T46" s="0" t="b">
         <v>0</v>
       </c>
@@ -4135,7 +3994,7 @@
         <v>146</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>236</v>
@@ -4172,9 +4031,6 @@
       </c>
       <c r="R47" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S47" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T47" s="0" t="b">
         <v>0</v>
@@ -4232,9 +4088,6 @@
       <c r="R48" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S48" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T48" s="0" t="b">
         <v>0</v>
       </c>
@@ -4291,9 +4144,6 @@
       <c r="R49" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S49" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T49" s="0" t="b">
         <v>1</v>
       </c>
@@ -4350,9 +4200,6 @@
       <c r="R50" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S50" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T50" s="0" t="b">
         <v>0</v>
       </c>
@@ -4409,9 +4256,6 @@
       <c r="R51" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S51" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T51" s="0" t="b">
         <v>0</v>
       </c>
@@ -4442,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K52" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="M52" s="0" t="b">
         <v>0</v>
@@ -4467,9 +4311,6 @@
       </c>
       <c r="R52" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S52" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T52" s="0" t="b">
         <v>0</v>
@@ -4527,9 +4368,6 @@
       <c r="R53" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S53" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T53" s="0" t="b">
         <v>0</v>
       </c>
@@ -4586,9 +4424,6 @@
       <c r="R54" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S54" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T54" s="0" t="b">
         <v>0</v>
       </c>
@@ -4645,9 +4480,6 @@
       <c r="R55" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S55" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T55" s="0" t="b">
         <v>0</v>
       </c>
@@ -4663,7 +4495,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>29</v>
@@ -4684,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M56" s="0" t="b">
         <v>0</v>
@@ -4703,9 +4535,6 @@
       </c>
       <c r="R56" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S56" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T56" s="0" t="b">
         <v>0</v>
@@ -4763,9 +4592,6 @@
       <c r="R57" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="S57" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T57" s="0" t="b">
         <v>0</v>
       </c>
@@ -4802,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M58" s="0" t="b">
         <v>0</v>
@@ -4821,9 +4647,6 @@
       </c>
       <c r="R58" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S58" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T58" s="0" t="b">
         <v>1</v>
@@ -4881,9 +4704,6 @@
       <c r="R59" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S59" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T59" s="0" t="b">
         <v>0</v>
       </c>
@@ -4940,9 +4760,6 @@
       <c r="R60" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S60" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T60" s="0" t="b">
         <v>0</v>
       </c>
@@ -4999,9 +4816,6 @@
       <c r="R61" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S61" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T61" s="0" t="b">
         <v>1</v>
       </c>
@@ -5058,9 +4872,6 @@
       <c r="R62" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S62" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T62" s="0" t="b">
         <v>0</v>
       </c>
@@ -5117,9 +4928,6 @@
       <c r="R63" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S63" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T63" s="0" t="b">
         <v>0</v>
       </c>
@@ -5176,9 +4984,6 @@
       <c r="R64" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S64" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T64" s="0" t="b">
         <v>0</v>
       </c>
@@ -5235,9 +5040,6 @@
       <c r="R65" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S65" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T65" s="0" t="b">
         <v>0</v>
       </c>
@@ -5294,9 +5096,6 @@
       <c r="R66" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S66" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T66" s="0" t="b">
         <v>0</v>
       </c>
@@ -5353,9 +5152,6 @@
       <c r="R67" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S67" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T67" s="0" t="b">
         <v>0</v>
       </c>
@@ -5392,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M68" s="0" t="b">
         <v>0</v>
@@ -5411,9 +5207,6 @@
       </c>
       <c r="R68" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S68" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T68" s="0" t="b">
         <v>0</v>
@@ -5471,9 +5264,6 @@
       <c r="R69" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S69" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T69" s="0" t="b">
         <v>0</v>
       </c>
@@ -5510,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M70" s="0" t="b">
         <v>0</v>
@@ -5529,9 +5319,6 @@
       </c>
       <c r="R70" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S70" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T70" s="0" t="b">
         <v>0</v>
@@ -5569,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M71" s="0" t="b">
         <v>0</v>
@@ -5588,9 +5375,6 @@
       </c>
       <c r="R71" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S71" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T71" s="0" t="b">
         <v>0</v>
@@ -5648,9 +5432,6 @@
       <c r="R72" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S72" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T72" s="0" t="b">
         <v>0</v>
       </c>
@@ -5707,9 +5488,6 @@
       <c r="R73" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S73" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T73" s="0" t="b">
         <v>0</v>
       </c>
@@ -5766,9 +5544,6 @@
       <c r="R74" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S74" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T74" s="0" t="b">
         <v>0</v>
       </c>
@@ -5805,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M75" s="0" t="b">
         <v>0</v>
@@ -5824,9 +5599,6 @@
       </c>
       <c r="R75" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S75" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T75" s="0" t="b">
         <v>0</v>
@@ -5884,9 +5656,6 @@
       <c r="R76" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S76" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T76" s="0" t="b">
         <v>0</v>
       </c>
@@ -5943,9 +5712,6 @@
       <c r="R77" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S77" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T77" s="0" t="b">
         <v>0</v>
       </c>
@@ -6002,9 +5768,6 @@
       <c r="R78" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S78" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T78" s="0" t="b">
         <v>0</v>
       </c>
@@ -6061,9 +5824,6 @@
       <c r="R79" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S79" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T79" s="0" t="b">
         <v>0</v>
       </c>
@@ -6100,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M80" s="0" t="b">
         <v>0</v>
@@ -6119,9 +5879,6 @@
       </c>
       <c r="R80" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S80" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T80" s="0" t="b">
         <v>0</v>
@@ -6159,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M81" s="0" t="b">
         <v>0</v>
@@ -6178,9 +5935,6 @@
       </c>
       <c r="R81" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S81" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T81" s="0" t="b">
         <v>0</v>
@@ -6238,9 +5992,6 @@
       <c r="R82" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S82" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T82" s="0" t="b">
         <v>0</v>
       </c>
@@ -6297,9 +6048,6 @@
       <c r="R83" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S83" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T83" s="0" t="b">
         <v>0</v>
       </c>
@@ -6336,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M84" s="0" t="b">
         <v>0</v>
@@ -6355,9 +6103,6 @@
       </c>
       <c r="R84" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S84" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T84" s="0" t="b">
         <v>0</v>
@@ -6415,9 +6160,6 @@
       <c r="R85" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S85" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T85" s="0" t="b">
         <v>0</v>
       </c>
@@ -6474,9 +6216,6 @@
       <c r="R86" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S86" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T86" s="0" t="b">
         <v>0</v>
       </c>
@@ -6533,9 +6272,6 @@
       <c r="R87" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S87" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T87" s="0" t="b">
         <v>0</v>
       </c>
@@ -6592,9 +6328,6 @@
       <c r="R88" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S88" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T88" s="0" t="b">
         <v>0</v>
       </c>
@@ -6651,9 +6384,6 @@
       <c r="R89" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S89" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T89" s="0" t="b">
         <v>0</v>
       </c>
@@ -6710,9 +6440,6 @@
       <c r="R90" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S90" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T90" s="0" t="b">
         <v>0</v>
       </c>
@@ -6749,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M91" s="0" t="b">
         <v>0</v>
@@ -6768,9 +6495,6 @@
       </c>
       <c r="R91" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="S91" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="T91" s="0" t="b">
         <v>0</v>
@@ -6828,9 +6552,6 @@
       <c r="R92" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S92" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T92" s="0" t="b">
         <v>0</v>
       </c>
@@ -6887,9 +6608,6 @@
       <c r="R93" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S93" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T93" s="0" t="b">
         <v>0</v>
       </c>
@@ -6946,9 +6664,6 @@
       <c r="R94" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="S94" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T94" s="0" t="b">
         <v>0</v>
       </c>
@@ -6978,14 +6693,26 @@
       <c r="I95" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J95" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="K95" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="L95" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="M95" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="N95" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="O95" s="0" t="b">
         <v>0</v>
+      </c>
+      <c r="P95" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="Q95" s="0" t="b">
         <v>0</v>
@@ -7022,14 +6749,26 @@
       <c r="I96" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J96" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="K96" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="L96" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="M96" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="N96" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="O96" s="0" t="b">
         <v>0</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="Q96" s="0" t="b">
         <v>0</v>
@@ -7066,14 +6805,26 @@
       <c r="I97" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J97" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="K97" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="L97" s="0" t="s">
+        <v>59</v>
+      </c>
       <c r="M97" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="N97" s="0" t="s">
+        <v>214</v>
+      </c>
       <c r="O97" s="0" t="b">
         <v>0</v>
+      </c>
+      <c r="P97" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="Q97" s="0" t="b">
         <v>0</v>
@@ -7110,15 +6861,27 @@
       <c r="I98" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="J98" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="K98" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="L98" s="0" t="s">
+        <v>99</v>
+      </c>
       <c r="M98" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="N98" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="O98" s="0" t="b">
         <v>0</v>
       </c>
+      <c r="P98" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="Q98" s="0" t="b">
         <v>0</v>
       </c>
@@ -7126,56 +6889,6 @@
         <v>0</v>
       </c>
       <c r="T98" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="I99" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="K99" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="M99" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="N99" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="O99" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="P99" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q99" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="R99" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="S99" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T99" s="0" t="b">
         <v>0</v>
       </c>
     </row>

--- a/TEEmployee/Files/userDB.xlsx
+++ b/TEEmployee/Files/userDB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
   <si>
     <t>員編</t>
   </si>
@@ -77,7 +77,7 @@
     <t>3398</t>
   </si>
   <si>
-    <t xml:space="preserve">蘇政龍       </t>
+    <t>蘇政龍</t>
   </si>
   <si>
     <t>24</t>
@@ -98,397 +98,406 @@
     <t>規劃</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>3436</t>
+  </si>
+  <si>
+    <t>劉士詠</t>
+  </si>
+  <si>
+    <t>工程師一</t>
+  </si>
+  <si>
+    <t>A|20463</t>
+  </si>
+  <si>
+    <t>lorinda@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>交通工程組</t>
+  </si>
+  <si>
+    <t>3545</t>
+  </si>
+  <si>
+    <t>徐佐鑫</t>
+  </si>
+  <si>
+    <t>A|20495</t>
+  </si>
+  <si>
+    <t>thhsu@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>專管</t>
+  </si>
+  <si>
+    <t>工程管理組</t>
+  </si>
+  <si>
+    <t>3836</t>
+  </si>
+  <si>
+    <t>李柏芳</t>
+  </si>
+  <si>
+    <t>B|(02)2214-3882#303 安坑工務所</t>
+  </si>
+  <si>
+    <t>amoslee@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>工務組</t>
+  </si>
+  <si>
+    <t>3884</t>
+  </si>
+  <si>
+    <t>黃文俊</t>
+  </si>
+  <si>
+    <t>主任工程師</t>
+  </si>
+  <si>
+    <t>計畫經理</t>
+  </si>
+  <si>
+    <t>A|10315</t>
+  </si>
+  <si>
+    <t>wenjiunn@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>成本/契約組</t>
+  </si>
+  <si>
+    <t>3909</t>
+  </si>
+  <si>
+    <t>劉祿媚</t>
+  </si>
+  <si>
+    <t>製圖師</t>
+  </si>
+  <si>
+    <t>A|20439</t>
+  </si>
+  <si>
+    <t>amyliu@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>設計</t>
+  </si>
+  <si>
+    <t>BIM暨程式開發組</t>
+  </si>
+  <si>
+    <t>3942</t>
+  </si>
+  <si>
+    <t>謝其泉</t>
+  </si>
+  <si>
+    <t>B|(02)2214-3882#306 安坑工務所</t>
+  </si>
+  <si>
+    <t>cchsieh@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>3944</t>
+  </si>
+  <si>
+    <t>俞璟琦</t>
+  </si>
+  <si>
+    <t>A|20496</t>
+  </si>
+  <si>
+    <t>tiffany@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4036</t>
+  </si>
+  <si>
+    <t>倪寶惠</t>
+  </si>
+  <si>
+    <t>工程師二</t>
+  </si>
+  <si>
+    <t>A|20407</t>
+  </si>
+  <si>
+    <t>paohwey@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>營運</t>
+  </si>
+  <si>
+    <t>界面整合管理組</t>
+  </si>
+  <si>
+    <t>4049</t>
+  </si>
+  <si>
+    <t>王佑生</t>
+  </si>
+  <si>
+    <t>B|(07)537-2606#8806 高辦</t>
+  </si>
+  <si>
+    <t>yswang@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>高雄作業組</t>
+  </si>
+  <si>
+    <t>4082</t>
+  </si>
+  <si>
+    <t>莊志維</t>
+  </si>
+  <si>
+    <t>技術經理</t>
+  </si>
+  <si>
+    <t>A|20461</t>
+  </si>
+  <si>
+    <t>chihwei3@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>永續與創新小組</t>
+  </si>
+  <si>
+    <t>4103</t>
+  </si>
+  <si>
+    <t>施淑芬</t>
+  </si>
+  <si>
+    <t>專員一</t>
+  </si>
+  <si>
+    <t>A|20433</t>
+  </si>
+  <si>
+    <t>dd189@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>行政組</t>
+  </si>
+  <si>
+    <t>4125</t>
+  </si>
+  <si>
+    <t>賴建名</t>
+  </si>
+  <si>
+    <t>協理</t>
+  </si>
+  <si>
+    <t>A|20410</t>
+  </si>
+  <si>
+    <t>lcm@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4143</t>
+  </si>
+  <si>
+    <t>李臺生</t>
+  </si>
+  <si>
+    <t>A|20473</t>
+  </si>
+  <si>
+    <t>lits@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4182</t>
+  </si>
+  <si>
+    <t>曹雅雯</t>
+  </si>
+  <si>
+    <t>A|20413</t>
+  </si>
+  <si>
+    <t>ywtsao@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4281</t>
+  </si>
+  <si>
+    <t>謝曜光</t>
+  </si>
+  <si>
+    <t>A|20351</t>
+  </si>
+  <si>
+    <t>vicent52@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4300</t>
+  </si>
+  <si>
+    <t>王貴森</t>
+  </si>
+  <si>
+    <t>A|20457</t>
+  </si>
+  <si>
+    <t>kueisen@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4320</t>
+  </si>
+  <si>
+    <t>汪安邦</t>
+  </si>
+  <si>
+    <t>A|20416</t>
+  </si>
+  <si>
+    <t>apwang@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>地工組二</t>
+  </si>
+  <si>
+    <t>4371</t>
+  </si>
+  <si>
+    <t>高怡萍</t>
+  </si>
+  <si>
+    <t>專員二</t>
+  </si>
+  <si>
+    <t>A|20493</t>
+  </si>
+  <si>
+    <t>ping@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4453</t>
+  </si>
+  <si>
+    <t>蘇瓊</t>
+  </si>
+  <si>
+    <t>專員三</t>
+  </si>
+  <si>
+    <t>B|(02)2521-5550#8256 北捷東環段</t>
+  </si>
+  <si>
+    <t>su4453@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4567</t>
+  </si>
+  <si>
+    <t>趙新鳳</t>
+  </si>
+  <si>
+    <t>工程師三</t>
+  </si>
+  <si>
+    <t>B|(02)2214-3882#313 安坑工務所</t>
+  </si>
+  <si>
+    <t>oldchao@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4585</t>
+  </si>
+  <si>
+    <t>郭步芳</t>
+  </si>
+  <si>
+    <t>A|20464</t>
+  </si>
+  <si>
+    <t>kuopa@mail.sinotech.com.tw</t>
+  </si>
+  <si>
     <t>排水管線組</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>3436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">劉士詠       </t>
-  </si>
-  <si>
-    <t>工程師一</t>
-  </si>
-  <si>
-    <t>A|20463</t>
-  </si>
-  <si>
-    <t>lorinda@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>交通工程組</t>
-  </si>
-  <si>
-    <t>3545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">徐佐鑫       </t>
-  </si>
-  <si>
-    <t>A|20495</t>
-  </si>
-  <si>
-    <t>thhsu@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>專管</t>
-  </si>
-  <si>
-    <t>工程管理組</t>
-  </si>
-  <si>
-    <t>3836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李柏芳       </t>
-  </si>
-  <si>
-    <t>B|(02)2214-3882#303 安坑工務所</t>
-  </si>
-  <si>
-    <t>amoslee@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>工務組</t>
-  </si>
-  <si>
-    <t>3884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黃文俊       </t>
-  </si>
-  <si>
-    <t>主任工程師</t>
-  </si>
-  <si>
-    <t>計畫經理</t>
-  </si>
-  <si>
-    <t>A|10315</t>
-  </si>
-  <si>
-    <t>wenjiunn@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>3909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">劉祿媚       </t>
-  </si>
-  <si>
-    <t>製圖師</t>
-  </si>
-  <si>
-    <t>A|20439</t>
-  </si>
-  <si>
-    <t>amyliu@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>設計</t>
-  </si>
-  <si>
-    <t>BIM暨程式開發組</t>
-  </si>
-  <si>
-    <t>3942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謝其泉       </t>
-  </si>
-  <si>
-    <t>B|(02)2214-3882#306 安坑工務所</t>
-  </si>
-  <si>
-    <t>cchsieh@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>3944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">俞璟琦       </t>
-  </si>
-  <si>
-    <t>A|20496</t>
-  </si>
-  <si>
-    <t>tiffany@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">倪寶惠       </t>
-  </si>
-  <si>
-    <t>工程師二</t>
-  </si>
-  <si>
-    <t>A|20407</t>
-  </si>
-  <si>
-    <t>paohwey@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>界面整合管理組</t>
-  </si>
-  <si>
-    <t>4049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王佑生       </t>
-  </si>
-  <si>
-    <t>B|(07)537-2606#8806 高辦</t>
-  </si>
-  <si>
-    <t>yswang@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>地工組二</t>
-  </si>
-  <si>
-    <t>4082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">莊志維       </t>
-  </si>
-  <si>
-    <t>技術經理</t>
-  </si>
-  <si>
-    <t>A|20461</t>
-  </si>
-  <si>
-    <t>chihwei3@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">施淑芬       </t>
-  </si>
-  <si>
-    <t>專員一</t>
-  </si>
-  <si>
-    <t>A|20433</t>
-  </si>
-  <si>
-    <t>dd189@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>行政組</t>
-  </si>
-  <si>
-    <t>4125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">賴建名       </t>
-  </si>
-  <si>
-    <t>協理</t>
-  </si>
-  <si>
-    <t>A|20410</t>
-  </si>
-  <si>
-    <t>lcm@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李臺生       </t>
-  </si>
-  <si>
-    <t>A|20473</t>
-  </si>
-  <si>
-    <t>lits@mail.sinotech.com.tw</t>
+    <t>4699</t>
+  </si>
+  <si>
+    <t>王瑞美</t>
+  </si>
+  <si>
+    <t>A|20434</t>
+  </si>
+  <si>
+    <t>jei59@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4718</t>
+  </si>
+  <si>
+    <t>姜式真</t>
+  </si>
+  <si>
+    <t>A|20455</t>
+  </si>
+  <si>
+    <t>polly@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4821</t>
+  </si>
+  <si>
+    <t>朱美麗</t>
+  </si>
+  <si>
+    <t>正工程師二</t>
+  </si>
+  <si>
+    <t>A|20428</t>
+  </si>
+  <si>
+    <t>mlchu@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4838</t>
+  </si>
+  <si>
+    <t>蘇啓鑫</t>
+  </si>
+  <si>
+    <t>B|(02)2214-3882#301 安坑工務所</t>
+  </si>
+  <si>
+    <t>ryansu@mail.sinotech.com.tw</t>
+  </si>
+  <si>
+    <t>4867</t>
+  </si>
+  <si>
+    <t>詹仁安</t>
+  </si>
+  <si>
+    <t>A|20405</t>
+  </si>
+  <si>
+    <t>jac@mail.sinotech.com.tw</t>
   </si>
   <si>
     <t>營運規劃組</t>
   </si>
   <si>
-    <t>4182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">曹雅雯       </t>
-  </si>
-  <si>
-    <t>A|20413</t>
-  </si>
-  <si>
-    <t>ywtsao@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謝曜光       </t>
-  </si>
-  <si>
-    <t>A|20351</t>
-  </si>
-  <si>
-    <t>vicent52@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王貴森       </t>
-  </si>
-  <si>
-    <t>A|20457</t>
-  </si>
-  <si>
-    <t>kueisen@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>成本/契約組</t>
-  </si>
-  <si>
-    <t>4320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">汪安邦       </t>
-  </si>
-  <si>
-    <t>A|20416</t>
-  </si>
-  <si>
-    <t>apwang@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高怡萍       </t>
-  </si>
-  <si>
-    <t>專員二</t>
-  </si>
-  <si>
-    <t>A|20493</t>
-  </si>
-  <si>
-    <t>ping@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蘇瓊        </t>
-  </si>
-  <si>
-    <t>專員三</t>
-  </si>
-  <si>
-    <t>B|(02)2521-5550#8256 北捷東環段</t>
-  </si>
-  <si>
-    <t>su4453@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">趙新鳳       </t>
-  </si>
-  <si>
-    <t>工程師三</t>
-  </si>
-  <si>
-    <t>B|(02)2214-3882#313 安坑工務所</t>
-  </si>
-  <si>
-    <t>oldchao@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郭步芳       </t>
-  </si>
-  <si>
-    <t>A|20464</t>
-  </si>
-  <si>
-    <t>kuopa@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王瑞美       </t>
-  </si>
-  <si>
-    <t>A|20434</t>
-  </si>
-  <si>
-    <t>jei59@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姜式真       </t>
-  </si>
-  <si>
-    <t>A|20455</t>
-  </si>
-  <si>
-    <t>polly@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朱美麗       </t>
-  </si>
-  <si>
-    <t>正工程師二</t>
-  </si>
-  <si>
-    <t>A|20428</t>
-  </si>
-  <si>
-    <t>mlchu@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蘇啓鑫       </t>
-  </si>
-  <si>
-    <t>B|(02)2214-3882#301 安坑工務所</t>
-  </si>
-  <si>
-    <t>ryansu@mail.sinotech.com.tw</t>
-  </si>
-  <si>
-    <t>4867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">詹仁安       </t>
-  </si>
-  <si>
-    <t>A|20405</t>
-  </si>
-  <si>
-    <t>jac@mail.sinotech.com.tw</t>
-  </si>
-  <si>
     <t>4898</t>
   </si>
   <si>
-    <t xml:space="preserve">王淨行       </t>
+    <t>王淨行</t>
   </si>
   <si>
     <t>B|(02)2233-1980#236 北捷局萬大線DQ122標</t>
@@ -500,7 +509,7 @@
     <t>4911</t>
   </si>
   <si>
-    <t xml:space="preserve">游明進       </t>
+    <t>游明進</t>
   </si>
   <si>
     <t>主任規劃師</t>
@@ -518,7 +527,7 @@
     <t>4927</t>
   </si>
   <si>
-    <t xml:space="preserve">張文仁       </t>
+    <t>張文仁</t>
   </si>
   <si>
     <t>A|10308</t>
@@ -533,7 +542,7 @@
     <t>4940</t>
   </si>
   <si>
-    <t xml:space="preserve">袁葆宇       </t>
+    <t>袁葆宇</t>
   </si>
   <si>
     <t>B|(02)2266-5736 北捷局捷運萬大線DQ124標</t>
@@ -545,7 +554,7 @@
     <t>5023</t>
   </si>
   <si>
-    <t xml:space="preserve">鄧新民       </t>
+    <t>鄧新民</t>
   </si>
   <si>
     <t>A|20408</t>
@@ -557,7 +566,7 @@
     <t>5068</t>
   </si>
   <si>
-    <t xml:space="preserve">姚大民       </t>
+    <t>姚大民</t>
   </si>
   <si>
     <t>A|20483</t>
@@ -569,7 +578,7 @@
     <t>5091</t>
   </si>
   <si>
-    <t xml:space="preserve">謝文凱       </t>
+    <t>謝文凱</t>
   </si>
   <si>
     <t>A|20427</t>
@@ -581,7 +590,7 @@
     <t>5139</t>
   </si>
   <si>
-    <t xml:space="preserve">陳育甄       </t>
+    <t>陳育甄</t>
   </si>
   <si>
     <t>正規劃師二</t>
@@ -596,7 +605,7 @@
     <t>5180</t>
   </si>
   <si>
-    <t xml:space="preserve">陳滄江       </t>
+    <t>陳滄江</t>
   </si>
   <si>
     <t>A|20425</t>
@@ -608,7 +617,7 @@
     <t>5191</t>
   </si>
   <si>
-    <t xml:space="preserve">黃幹鐘       </t>
+    <t>黃幹鐘</t>
   </si>
   <si>
     <t>A|20388</t>
@@ -620,7 +629,7 @@
     <t>5312</t>
   </si>
   <si>
-    <t xml:space="preserve">殷鼎棋       </t>
+    <t>殷鼎棋</t>
   </si>
   <si>
     <t>A|20384</t>
@@ -632,7 +641,7 @@
     <t>5386</t>
   </si>
   <si>
-    <t xml:space="preserve">張宏泰       </t>
+    <t>張宏泰</t>
   </si>
   <si>
     <t>A|20479</t>
@@ -644,7 +653,7 @@
     <t>5526</t>
   </si>
   <si>
-    <t xml:space="preserve">陳柏愷       </t>
+    <t>陳柏愷</t>
   </si>
   <si>
     <t>正建築師二</t>
@@ -656,13 +665,10 @@
     <t>pkchen81@mail.sinotech.com.tw</t>
   </si>
   <si>
-    <t>智慧軌道創新小組</t>
-  </si>
-  <si>
     <t>5614</t>
   </si>
   <si>
-    <t xml:space="preserve">宇仁傅       </t>
+    <t>宇仁傅</t>
   </si>
   <si>
     <t>B|(02)2214-3882#302 安坑工務所</t>
@@ -674,7 +680,7 @@
     <t>5621</t>
   </si>
   <si>
-    <t xml:space="preserve">陳煜棋       </t>
+    <t>陳煜棋</t>
   </si>
   <si>
     <t>A|20436</t>
@@ -686,7 +692,7 @@
     <t>5638</t>
   </si>
   <si>
-    <t xml:space="preserve">孫信泰       </t>
+    <t>孫信泰</t>
   </si>
   <si>
     <t>teddysun@mail.sinotech.com.tw</t>
@@ -695,7 +701,7 @@
     <t>5835</t>
   </si>
   <si>
-    <t xml:space="preserve">李安爵       </t>
+    <t>李安爵</t>
   </si>
   <si>
     <t>A|20484</t>
@@ -707,7 +713,7 @@
     <t>5853</t>
   </si>
   <si>
-    <t xml:space="preserve">廖晟富       </t>
+    <t>廖晟富</t>
   </si>
   <si>
     <t>A|20487</t>
@@ -719,7 +725,7 @@
     <t>6014</t>
   </si>
   <si>
-    <t xml:space="preserve">曾紀緯       </t>
+    <t>曾紀緯</t>
   </si>
   <si>
     <t>A|20421</t>
@@ -731,7 +737,7 @@
     <t>6035</t>
   </si>
   <si>
-    <t xml:space="preserve">林忠群       </t>
+    <t>林忠群</t>
   </si>
   <si>
     <t>A|20404</t>
@@ -743,7 +749,7 @@
     <t>6112</t>
   </si>
   <si>
-    <t xml:space="preserve">王思涵       </t>
+    <t>王思涵</t>
   </si>
   <si>
     <t>A|20424</t>
@@ -755,7 +761,7 @@
     <t>6216</t>
   </si>
   <si>
-    <t xml:space="preserve">郭英助       </t>
+    <t>郭英助</t>
   </si>
   <si>
     <t>A|20458</t>
@@ -767,7 +773,7 @@
     <t>6220</t>
   </si>
   <si>
-    <t xml:space="preserve">王柏棟       </t>
+    <t>王柏棟</t>
   </si>
   <si>
     <t>A|10307</t>
@@ -779,7 +785,7 @@
     <t>6258</t>
   </si>
   <si>
-    <t xml:space="preserve">李佳樺       </t>
+    <t>李佳樺</t>
   </si>
   <si>
     <t>規劃師一</t>
@@ -794,7 +800,7 @@
     <t>6799</t>
   </si>
   <si>
-    <t xml:space="preserve">戴家瑋       </t>
+    <t>戴家瑋</t>
   </si>
   <si>
     <t>cwtai@mail.sinotech.com.tw</t>
@@ -803,7 +809,7 @@
     <t>6812</t>
   </si>
   <si>
-    <t xml:space="preserve">洪晨瑋       </t>
+    <t>洪晨瑋</t>
   </si>
   <si>
     <t>A|20477</t>
@@ -815,7 +821,7 @@
     <t>6825</t>
   </si>
   <si>
-    <t xml:space="preserve">曾進宏       </t>
+    <t>曾進宏</t>
   </si>
   <si>
     <t>A|10303</t>
@@ -827,7 +833,7 @@
     <t>6846</t>
   </si>
   <si>
-    <t xml:space="preserve">譚以婕       </t>
+    <t>譚以婕</t>
   </si>
   <si>
     <t>A|20415</t>
@@ -839,7 +845,7 @@
     <t>6877</t>
   </si>
   <si>
-    <t xml:space="preserve">陳立        </t>
+    <t>陳立</t>
   </si>
   <si>
     <t>A|20478</t>
@@ -851,7 +857,7 @@
     <t>6914</t>
   </si>
   <si>
-    <t xml:space="preserve">唐楷勝       </t>
+    <t>唐楷勝</t>
   </si>
   <si>
     <t>A|10309</t>
@@ -863,7 +869,7 @@
     <t>6923</t>
   </si>
   <si>
-    <t xml:space="preserve">阮俊儒       </t>
+    <t>阮俊儒</t>
   </si>
   <si>
     <t>A|20497</t>
@@ -875,7 +881,7 @@
     <t>6988</t>
   </si>
   <si>
-    <t xml:space="preserve">劉執敏       </t>
+    <t>劉執敏</t>
   </si>
   <si>
     <t>A|20419</t>
@@ -887,7 +893,7 @@
     <t>6997</t>
   </si>
   <si>
-    <t xml:space="preserve">張正憲       </t>
+    <t>張正憲</t>
   </si>
   <si>
     <t>A|20429</t>
@@ -899,7 +905,7 @@
     <t>7023</t>
   </si>
   <si>
-    <t xml:space="preserve">郭天慈       </t>
+    <t>郭天慈</t>
   </si>
   <si>
     <t>規劃師二</t>
@@ -914,7 +920,7 @@
     <t>7209</t>
   </si>
   <si>
-    <t xml:space="preserve">許宏旭       </t>
+    <t>許宏旭</t>
   </si>
   <si>
     <t>B|(02)2223-9643 捷運萬大土城施工處</t>
@@ -926,7 +932,7 @@
     <t>7291</t>
   </si>
   <si>
-    <t xml:space="preserve">盧培文       </t>
+    <t>盧培文</t>
   </si>
   <si>
     <t>A|20466</t>
@@ -938,7 +944,7 @@
     <t>7340</t>
   </si>
   <si>
-    <t xml:space="preserve">顏佳瑄       </t>
+    <t>顏佳瑄</t>
   </si>
   <si>
     <t>B|(07)537-2606#8810 高辦</t>
@@ -950,7 +956,7 @@
     <t>7346</t>
   </si>
   <si>
-    <t xml:space="preserve">夏語堯       </t>
+    <t>夏語堯</t>
   </si>
   <si>
     <t>A|20437</t>
@@ -962,7 +968,7 @@
     <t>7382</t>
   </si>
   <si>
-    <t xml:space="preserve">劉廷毅       </t>
+    <t>劉廷毅</t>
   </si>
   <si>
     <t>A|20475</t>
@@ -974,7 +980,7 @@
     <t>7383</t>
   </si>
   <si>
-    <t xml:space="preserve">周汶叡       </t>
+    <t>周汶叡</t>
   </si>
   <si>
     <t>A|20409</t>
@@ -986,7 +992,7 @@
     <t>7394</t>
   </si>
   <si>
-    <t xml:space="preserve">郭濰榕       </t>
+    <t>郭濰榕</t>
   </si>
   <si>
     <t>A|20406</t>
@@ -998,7 +1004,7 @@
     <t>7457</t>
   </si>
   <si>
-    <t xml:space="preserve">謝君毅       </t>
+    <t>謝君毅</t>
   </si>
   <si>
     <t>A|20418</t>
@@ -1010,7 +1016,7 @@
     <t>7458</t>
   </si>
   <si>
-    <t xml:space="preserve">朱永恩       </t>
+    <t>朱永恩</t>
   </si>
   <si>
     <t>A|20454</t>
@@ -1022,7 +1028,7 @@
     <t>7514</t>
   </si>
   <si>
-    <t xml:space="preserve">陳耀基       </t>
+    <t>陳耀基</t>
   </si>
   <si>
     <t>A|10306</t>
@@ -1034,7 +1040,7 @@
     <t>7596</t>
   </si>
   <si>
-    <t xml:space="preserve">許皓威       </t>
+    <t>許皓威</t>
   </si>
   <si>
     <t>A|20426</t>
@@ -1046,7 +1052,7 @@
     <t>7615</t>
   </si>
   <si>
-    <t xml:space="preserve">游子嫺       </t>
+    <t>游子嫺</t>
   </si>
   <si>
     <t>A|20476</t>
@@ -1058,7 +1064,7 @@
     <t>7659</t>
   </si>
   <si>
-    <t xml:space="preserve">鍾欣潔       </t>
+    <t>鍾欣潔</t>
   </si>
   <si>
     <t>A|10305</t>
@@ -1070,7 +1076,7 @@
     <t>7702</t>
   </si>
   <si>
-    <t xml:space="preserve">賴君瑋       </t>
+    <t>賴君瑋</t>
   </si>
   <si>
     <t>A|20377</t>
@@ -1082,7 +1088,7 @@
     <t>7754</t>
   </si>
   <si>
-    <t xml:space="preserve">陳冠妤       </t>
+    <t>陳冠妤</t>
   </si>
   <si>
     <t>規劃師四</t>
@@ -1097,7 +1103,7 @@
     <t>7809</t>
   </si>
   <si>
-    <t xml:space="preserve">李伊婷       </t>
+    <t>李伊婷</t>
   </si>
   <si>
     <t>A|20489</t>
@@ -1109,7 +1115,7 @@
     <t>7897</t>
   </si>
   <si>
-    <t xml:space="preserve">汪祐毅       </t>
+    <t>汪祐毅</t>
   </si>
   <si>
     <t>A|20417</t>
@@ -1121,7 +1127,7 @@
     <t>7899</t>
   </si>
   <si>
-    <t xml:space="preserve">黃靖惠       </t>
+    <t>黃靖惠</t>
   </si>
   <si>
     <t>A|20435</t>
@@ -1133,7 +1139,7 @@
     <t>8026</t>
   </si>
   <si>
-    <t xml:space="preserve">林士峰       </t>
+    <t>林士峰</t>
   </si>
   <si>
     <t>A|20456</t>
@@ -1145,7 +1151,7 @@
     <t>8056</t>
   </si>
   <si>
-    <t xml:space="preserve">鄭秋蓉       </t>
+    <t>鄭秋蓉</t>
   </si>
   <si>
     <t>A|20468</t>
@@ -1157,7 +1163,7 @@
     <t>8103</t>
   </si>
   <si>
-    <t xml:space="preserve">薛宏毅       </t>
+    <t>薛宏毅</t>
   </si>
   <si>
     <t>A|20498</t>
@@ -1169,7 +1175,7 @@
     <t>8247</t>
   </si>
   <si>
-    <t xml:space="preserve">洪睿檠       </t>
+    <t>洪睿檠</t>
   </si>
   <si>
     <t>A|20403</t>
@@ -1181,7 +1187,7 @@
     <t>8266</t>
   </si>
   <si>
-    <t xml:space="preserve">黃暉淇       </t>
+    <t>黃暉淇</t>
   </si>
   <si>
     <t>A|10304</t>
@@ -1193,7 +1199,7 @@
     <t>8284</t>
   </si>
   <si>
-    <t xml:space="preserve">張睿庭       </t>
+    <t>張睿庭</t>
   </si>
   <si>
     <t>A|20376</t>
@@ -1205,7 +1211,7 @@
     <t>8290</t>
   </si>
   <si>
-    <t xml:space="preserve">陳怡云       </t>
+    <t>陳怡云</t>
   </si>
   <si>
     <t>A|20366</t>
@@ -1217,7 +1223,7 @@
     <t>8325</t>
   </si>
   <si>
-    <t xml:space="preserve">杜于嫣       </t>
+    <t>杜于嫣</t>
   </si>
   <si>
     <t>A|20385</t>
@@ -1229,7 +1235,7 @@
     <t>8330</t>
   </si>
   <si>
-    <t xml:space="preserve">毛婕霖       </t>
+    <t>毛婕霖</t>
   </si>
   <si>
     <t>A|20389</t>
@@ -1241,7 +1247,7 @@
     <t>8370</t>
   </si>
   <si>
-    <t xml:space="preserve">葉錦德       </t>
+    <t>葉錦德</t>
   </si>
   <si>
     <t>A|20365</t>
@@ -1253,7 +1259,7 @@
     <t>8391</t>
   </si>
   <si>
-    <t xml:space="preserve">陳柏鈞       </t>
+    <t>陳柏鈞</t>
   </si>
   <si>
     <t>A|20375</t>
@@ -1265,7 +1271,7 @@
     <t>8393</t>
   </si>
   <si>
-    <t xml:space="preserve">黃宣鳳       </t>
+    <t>黃宣鳳</t>
   </si>
   <si>
     <t>A|20367</t>
@@ -1277,7 +1283,7 @@
     <t>8399</t>
   </si>
   <si>
-    <t xml:space="preserve">陳岱廷       </t>
+    <t>陳岱廷</t>
   </si>
   <si>
     <t>工程師四</t>
@@ -1292,7 +1298,7 @@
     <t>8400</t>
   </si>
   <si>
-    <t xml:space="preserve">戴家均       </t>
+    <t>戴家均</t>
   </si>
   <si>
     <t>A|20485</t>
@@ -1304,7 +1310,7 @@
     <t>8457</t>
   </si>
   <si>
-    <t xml:space="preserve">林祐亦       </t>
+    <t>林祐亦</t>
   </si>
   <si>
     <t>A|20373</t>
@@ -1316,7 +1322,7 @@
     <t>8468</t>
   </si>
   <si>
-    <t xml:space="preserve">陳冠傑       </t>
+    <t>陳冠傑</t>
   </si>
   <si>
     <t>A|20383</t>
@@ -1328,7 +1334,7 @@
     <t>8477</t>
   </si>
   <si>
-    <t xml:space="preserve">曾姿燕       </t>
+    <t>曾姿燕</t>
   </si>
   <si>
     <t>A|20387</t>
@@ -1340,7 +1346,7 @@
     <t>8485</t>
   </si>
   <si>
-    <t xml:space="preserve">陳尉雯       </t>
+    <t>陳尉雯</t>
   </si>
   <si>
     <t>A|10325</t>
@@ -1489,7 +1495,7 @@
         <v>27</v>
       </c>
       <c r="K2" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>28</v>
@@ -1498,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="0" t="b">
         <v>0</v>
@@ -1518,25 +1524,25 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="I3" s="0" t="b">
         <v>0</v>
@@ -1548,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="0" t="b">
         <v>0</v>
@@ -1574,49 +1580,49 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="M4" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O4" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="0" t="b">
         <v>0</v>
@@ -1630,10 +1636,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>22</v>
@@ -1645,34 +1651,34 @@
         <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="M5" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="0" t="b">
         <v>0</v>
@@ -1686,52 +1692,52 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="I6" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M6" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O6" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="0" t="b">
         <v>1</v>
@@ -1754,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>56</v>
@@ -1778,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="0" t="b">
         <v>0</v>
@@ -1807,10 +1813,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>62</v>
@@ -1822,25 +1828,25 @@
         <v>0</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="0" t="b">
         <v>0</v>
@@ -1866,7 +1872,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>66</v>
@@ -1890,13 +1896,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="0" t="b">
         <v>0</v>
@@ -1922,7 +1928,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>71</v>
@@ -1934,25 +1940,25 @@
         <v>0</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K10" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M10" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="0" t="b">
         <v>0</v>
@@ -1966,10 +1972,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>22</v>
@@ -1978,37 +1984,37 @@
         <v>70</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="0" t="b">
         <v>0</v>
@@ -2022,49 +2028,49 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="0" t="b">
         <v>1</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O12" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="0" t="b">
         <v>0</v>
@@ -2078,49 +2084,49 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I13" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="0" t="b">
         <v>0</v>
@@ -2134,55 +2140,55 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I14" s="0" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O14" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="0" t="b">
         <v>0</v>
       </c>
       <c r="R14" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="0" t="b">
         <v>0</v>
@@ -2190,55 +2196,43 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I15" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="K15" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="L15" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="M15" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="N15" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="O15" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="Q15" s="0" t="b">
         <v>0</v>
       </c>
       <c r="R15" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="0" t="b">
         <v>0</v>
@@ -2246,49 +2240,49 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I16" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O16" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="0" t="b">
         <v>0</v>
@@ -2302,49 +2296,37 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I17" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="K17" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="L17" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="M17" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="N17" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="O17" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="Q17" s="0" t="b">
         <v>0</v>
@@ -2358,49 +2340,49 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I18" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="M18" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O18" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="0" t="b">
         <v>0</v>
@@ -2426,7 +2408,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>115</v>
@@ -2444,19 +2426,19 @@
         <v>0</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="M19" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O19" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="0" t="b">
         <v>0</v>
@@ -2470,49 +2452,49 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I20" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M20" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O20" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="0" t="b">
         <v>0</v>
@@ -2526,49 +2508,49 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I21" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M21" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O21" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="0" t="b">
         <v>0</v>
@@ -2582,49 +2564,49 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I22" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M22" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O22" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="0" t="b">
         <v>0</v>
@@ -2638,25 +2620,25 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I23" s="0" t="b">
         <v>0</v>
@@ -2668,19 +2650,19 @@
         <v>0</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M23" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O23" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="0" t="b">
         <v>0</v>
@@ -2694,25 +2676,25 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I24" s="0" t="b">
         <v>0</v>
@@ -2730,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O24" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="0" t="b">
         <v>0</v>
@@ -2750,49 +2732,49 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I25" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K25" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M25" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O25" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="0" t="b">
         <v>0</v>
@@ -2806,49 +2788,49 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I26" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="M26" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O26" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="0" t="b">
         <v>0</v>
@@ -2862,52 +2844,52 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I27" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="0" t="b">
         <v>1</v>
       </c>
-      <c r="L27" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M27" s="0" t="b">
-        <v>0</v>
-      </c>
       <c r="N27" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="O27" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="0" t="b">
         <v>1</v>
@@ -2918,49 +2900,49 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I28" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="K28" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="M28" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O28" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="0" t="b">
         <v>0</v>
@@ -2969,54 +2951,42 @@
         <v>1</v>
       </c>
       <c r="T28" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I29" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="K29" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="L29" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="M29" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="N29" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="O29" s="0" t="b">
         <v>0</v>
-      </c>
-      <c r="P29" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="Q29" s="0" t="b">
         <v>0</v>
@@ -3030,25 +3000,25 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I30" s="0" t="b">
         <v>0</v>
@@ -3060,19 +3030,19 @@
         <v>0</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M30" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O30" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="0" t="b">
         <v>0</v>
@@ -3086,25 +3056,25 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I31" s="0" t="b">
         <v>0</v>
@@ -3116,22 +3086,22 @@
         <v>0</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="M31" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="O31" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="Q31" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="0" t="b">
         <v>0</v>
@@ -3142,49 +3112,49 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I32" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M32" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O32" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="0" t="b">
         <v>0</v>
@@ -3198,10 +3168,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>22</v>
@@ -3210,13 +3180,13 @@
         <v>70</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I33" s="0" t="b">
         <v>0</v>
@@ -3228,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M33" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O33" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="0" t="b">
         <v>0</v>
@@ -3254,25 +3224,25 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I34" s="0" t="b">
         <v>0</v>
@@ -3284,19 +3254,19 @@
         <v>0</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M34" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O34" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q34" s="0" t="b">
         <v>0</v>
@@ -3310,25 +3280,25 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I35" s="0" t="b">
         <v>0</v>
@@ -3340,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M35" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O35" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="0" t="b">
         <v>0</v>
@@ -3366,25 +3336,25 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I36" s="0" t="b">
         <v>0</v>
@@ -3396,19 +3366,19 @@
         <v>0</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M36" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O36" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q36" s="0" t="b">
         <v>0</v>
@@ -3422,25 +3392,25 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I37" s="0" t="b">
         <v>0</v>
@@ -3452,19 +3422,19 @@
         <v>1</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M37" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O37" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q37" s="0" t="b">
         <v>0</v>
@@ -3478,25 +3448,25 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I38" s="0" t="b">
         <v>0</v>
@@ -3508,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M38" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O38" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q38" s="0" t="b">
         <v>0</v>
@@ -3534,25 +3504,25 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I39" s="0" t="b">
         <v>0</v>
@@ -3564,19 +3534,19 @@
         <v>0</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M39" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O39" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q39" s="0" t="b">
         <v>0</v>
@@ -3590,49 +3560,49 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I40" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M40" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O40" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q40" s="0" t="b">
         <v>0</v>
@@ -3646,25 +3616,25 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I41" s="0" t="b">
         <v>0</v>
@@ -3682,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O41" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="0" t="b">
         <v>0</v>
@@ -3702,49 +3672,49 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I42" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M42" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O42" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="0" t="b">
         <v>0</v>
@@ -3758,49 +3728,49 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I43" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="M43" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O43" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q43" s="0" t="b">
         <v>0</v>
@@ -3814,10 +3784,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>22</v>
@@ -3826,37 +3796,37 @@
         <v>70</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I44" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M44" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O44" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q44" s="0" t="b">
         <v>0</v>
@@ -3870,49 +3840,49 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I45" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="K45" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="M45" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O45" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q45" s="0" t="b">
         <v>0</v>
@@ -3926,10 +3896,10 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>22</v>
@@ -3938,37 +3908,37 @@
         <v>70</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I46" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K46" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="M46" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O46" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q46" s="0" t="b">
         <v>0</v>
@@ -3982,25 +3952,25 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I47" s="0" t="b">
         <v>0</v>
@@ -4012,25 +3982,25 @@
         <v>1</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M47" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O47" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q47" s="0" t="b">
         <v>0</v>
       </c>
       <c r="R47" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="0" t="b">
         <v>0</v>
@@ -4038,49 +4008,49 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I48" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K48" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="M48" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O48" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q48" s="0" t="b">
         <v>0</v>
@@ -4094,49 +4064,49 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I49" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K49" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M49" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O49" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q49" s="0" t="b">
         <v>0</v>
@@ -4150,10 +4120,10 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>22</v>
@@ -4162,13 +4132,13 @@
         <v>70</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I50" s="0" t="b">
         <v>0</v>
@@ -4180,19 +4150,19 @@
         <v>0</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M50" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O50" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q50" s="0" t="b">
         <v>0</v>
@@ -4206,49 +4176,49 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I51" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="K51" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="M51" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O51" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q51" s="0" t="b">
         <v>0</v>
@@ -4262,25 +4232,25 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I52" s="0" t="b">
         <v>0</v>
@@ -4292,19 +4262,19 @@
         <v>0</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M52" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O52" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q52" s="0" t="b">
         <v>0</v>
@@ -4318,49 +4288,49 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>62</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I53" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M53" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O53" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q53" s="0" t="b">
         <v>0</v>
@@ -4374,49 +4344,49 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I54" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K54" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M54" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O54" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q54" s="0" t="b">
         <v>0</v>
@@ -4430,49 +4400,49 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>24</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I55" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J55" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="K55" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="M55" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O55" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q55" s="0" t="b">
         <v>0</v>
@@ -4486,49 +4456,49 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I56" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K56" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M56" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O56" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q56" s="0" t="b">
         <v>0</v>
@@ -4542,52 +4512,52 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I57" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="K57" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="M57" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="O57" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="Q57" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="0" t="b">
         <v>1</v>
@@ -4598,49 +4568,49 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I58" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="M58" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O58" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q58" s="0" t="b">
         <v>0</v>
@@ -4654,49 +4624,49 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I59" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J59" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K59" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="M59" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O59" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q59" s="0" t="b">
         <v>0</v>
@@ -4710,10 +4680,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>22</v>
@@ -4722,37 +4692,37 @@
         <v>70</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I60" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K60" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M60" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O60" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q60" s="0" t="b">
         <v>0</v>
@@ -4766,25 +4736,25 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I61" s="0" t="b">
         <v>0</v>
@@ -4796,19 +4766,19 @@
         <v>0</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M61" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O61" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q61" s="0" t="b">
         <v>0</v>
@@ -4822,25 +4792,25 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I62" s="0" t="b">
         <v>0</v>
@@ -4852,19 +4822,19 @@
         <v>0</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M62" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O62" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q62" s="0" t="b">
         <v>0</v>
@@ -4878,49 +4848,49 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I63" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M63" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O63" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q63" s="0" t="b">
         <v>0</v>
@@ -4934,10 +4904,10 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>22</v>
@@ -4946,13 +4916,13 @@
         <v>70</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I64" s="0" t="b">
         <v>0</v>
@@ -4970,13 +4940,13 @@
         <v>0</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O64" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q64" s="0" t="b">
         <v>0</v>
@@ -4990,49 +4960,49 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I65" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K65" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M65" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="O65" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q65" s="0" t="b">
         <v>0</v>
@@ -5046,10 +5016,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>22</v>
@@ -5058,13 +5028,13 @@
         <v>70</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I66" s="0" t="b">
         <v>0</v>
@@ -5076,19 +5046,19 @@
         <v>0</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M66" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O66" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q66" s="0" t="b">
         <v>0</v>
@@ -5102,10 +5072,10 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>22</v>
@@ -5114,13 +5084,13 @@
         <v>70</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I67" s="0" t="b">
         <v>0</v>
@@ -5132,19 +5102,19 @@
         <v>0</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M67" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O67" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q67" s="0" t="b">
         <v>0</v>
@@ -5158,10 +5128,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>22</v>
@@ -5170,37 +5140,37 @@
         <v>70</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I68" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="K68" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="M68" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O68" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q68" s="0" t="b">
         <v>0</v>
@@ -5209,15 +5179,15 @@
         <v>0</v>
       </c>
       <c r="T68" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>22</v>
@@ -5226,13 +5196,13 @@
         <v>70</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I69" s="0" t="b">
         <v>0</v>
@@ -5244,19 +5214,19 @@
         <v>0</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M69" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O69" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q69" s="0" t="b">
         <v>0</v>
@@ -5270,10 +5240,10 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>22</v>
@@ -5282,13 +5252,13 @@
         <v>70</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I70" s="0" t="b">
         <v>0</v>
@@ -5300,19 +5270,19 @@
         <v>0</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="M70" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O70" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q70" s="0" t="b">
         <v>0</v>
@@ -5326,49 +5296,49 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I71" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="K71" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="M71" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O71" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q71" s="0" t="b">
         <v>0</v>
@@ -5382,10 +5352,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>22</v>
@@ -5394,13 +5364,13 @@
         <v>70</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I72" s="0" t="b">
         <v>0</v>
@@ -5412,19 +5382,19 @@
         <v>0</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M72" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O72" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q72" s="0" t="b">
         <v>0</v>
@@ -5438,25 +5408,25 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I73" s="0" t="b">
         <v>0</v>
@@ -5474,13 +5444,13 @@
         <v>0</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O73" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q73" s="0" t="b">
         <v>0</v>
@@ -5494,25 +5464,25 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I74" s="0" t="b">
         <v>0</v>
@@ -5524,19 +5494,19 @@
         <v>0</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M74" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O74" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q74" s="0" t="b">
         <v>0</v>
@@ -5550,10 +5520,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>22</v>
@@ -5562,37 +5532,37 @@
         <v>70</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I75" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="M75" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O75" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q75" s="0" t="b">
         <v>0</v>
@@ -5606,49 +5576,49 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I76" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J76" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K76" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="M76" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O76" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q76" s="0" t="b">
         <v>0</v>
@@ -5662,25 +5632,25 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I77" s="0" t="b">
         <v>0</v>
@@ -5692,19 +5662,19 @@
         <v>0</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M77" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O77" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q77" s="0" t="b">
         <v>0</v>
@@ -5718,10 +5688,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>22</v>
@@ -5730,13 +5700,13 @@
         <v>70</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I78" s="0" t="b">
         <v>0</v>
@@ -5748,19 +5718,19 @@
         <v>0</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M78" s="0" t="b">
         <v>1</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="O78" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q78" s="0" t="b">
         <v>0</v>
@@ -5774,25 +5744,25 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I79" s="0" t="b">
         <v>0</v>
@@ -5804,19 +5774,19 @@
         <v>0</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M79" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O79" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q79" s="0" t="b">
         <v>0</v>
@@ -5830,25 +5800,25 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I80" s="0" t="b">
         <v>0</v>
@@ -5860,19 +5830,19 @@
         <v>0</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="M80" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O80" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q80" s="0" t="b">
         <v>0</v>
@@ -5886,49 +5856,49 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I81" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="M81" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O81" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q81" s="0" t="b">
         <v>0</v>
@@ -5942,10 +5912,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>22</v>
@@ -5954,13 +5924,13 @@
         <v>70</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I82" s="0" t="b">
         <v>0</v>
@@ -5972,19 +5942,19 @@
         <v>0</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M82" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O82" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q82" s="0" t="b">
         <v>0</v>
@@ -5998,49 +5968,49 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I83" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K83" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M83" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O83" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q83" s="0" t="b">
         <v>0</v>
@@ -6054,49 +6024,49 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I84" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="M84" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O84" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q84" s="0" t="b">
         <v>0</v>
@@ -6110,10 +6080,10 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>22</v>
@@ -6122,37 +6092,37 @@
         <v>70</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I85" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J85" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K85" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="M85" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O85" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q85" s="0" t="b">
         <v>0</v>
@@ -6166,25 +6136,25 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I86" s="0" t="b">
         <v>0</v>
@@ -6196,19 +6166,19 @@
         <v>0</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M86" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O86" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q86" s="0" t="b">
         <v>0</v>
@@ -6222,49 +6192,49 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I87" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J87" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K87" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="M87" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O87" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q87" s="0" t="b">
         <v>0</v>
@@ -6278,25 +6248,25 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I88" s="0" t="b">
         <v>0</v>
@@ -6308,19 +6278,19 @@
         <v>0</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M88" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O88" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q88" s="0" t="b">
         <v>0</v>
@@ -6334,49 +6304,49 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I89" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J89" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K89" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="M89" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O89" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q89" s="0" t="b">
         <v>0</v>
@@ -6390,25 +6360,25 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I90" s="0" t="b">
         <v>0</v>
@@ -6420,19 +6390,19 @@
         <v>0</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M90" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O90" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q90" s="0" t="b">
         <v>0</v>
@@ -6446,25 +6416,25 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I91" s="0" t="b">
         <v>0</v>
@@ -6476,19 +6446,19 @@
         <v>0</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="M91" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O91" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q91" s="0" t="b">
         <v>0</v>
@@ -6502,25 +6472,25 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I92" s="0" t="b">
         <v>0</v>
@@ -6532,19 +6502,19 @@
         <v>0</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M92" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O92" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P92" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q92" s="0" t="b">
         <v>0</v>
@@ -6558,49 +6528,49 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I93" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K93" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M93" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O93" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q93" s="0" t="b">
         <v>0</v>
@@ -6614,49 +6584,49 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I94" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K94" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M94" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O94" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q94" s="0" t="b">
         <v>0</v>
@@ -6670,25 +6640,25 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I95" s="0" t="b">
         <v>0</v>
@@ -6700,19 +6670,19 @@
         <v>0</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="M95" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O95" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q95" s="0" t="b">
         <v>0</v>
@@ -6726,10 +6696,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>22</v>
@@ -6738,13 +6708,13 @@
         <v>70</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I96" s="0" t="b">
         <v>0</v>
@@ -6756,19 +6726,19 @@
         <v>0</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M96" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O96" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q96" s="0" t="b">
         <v>0</v>
@@ -6782,10 +6752,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>22</v>
@@ -6794,13 +6764,13 @@
         <v>70</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I97" s="0" t="b">
         <v>0</v>
@@ -6818,13 +6788,13 @@
         <v>0</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O97" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q97" s="0" t="b">
         <v>0</v>
@@ -6838,10 +6808,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>22</v>
@@ -6850,37 +6820,37 @@
         <v>70</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I98" s="0" t="b">
         <v>0</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="K98" s="0" t="b">
         <v>0</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="M98" s="0" t="b">
         <v>0</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="O98" s="0" t="b">
         <v>0</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q98" s="0" t="b">
         <v>0</v>
